--- a/Versão2/Urba/Ontologia_Urba_Axiomas.xlsx
+++ b/Versão2/Urba/Ontologia_Urba_Axiomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\Urba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F17B3F-DE3A-41F8-90F5-147F53240654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77775A7A-CD98-4044-AB03-7D64C3BD4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$T$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$T$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="153">
   <si>
     <t>Lote</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Núcleo</t>
   </si>
   <si>
     <t>SuperClass
@@ -242,9 +239,6 @@
     <t>SubContinente</t>
   </si>
   <si>
-    <t>Política</t>
-  </si>
-  <si>
     <t>Predial</t>
   </si>
   <si>
@@ -439,9 +433,6 @@
     <t>tem_distrito</t>
   </si>
   <si>
-    <t>De_Divisão</t>
-  </si>
-  <si>
     <t>De_Zoneamento</t>
   </si>
   <si>
@@ -454,13 +445,73 @@
     <t>De_Construção</t>
   </si>
   <si>
-    <t>De_Ordem</t>
-  </si>
-  <si>
     <t>p_funcional</t>
   </si>
   <si>
     <t>tem_RA</t>
+  </si>
+  <si>
+    <t>De_Organização</t>
+  </si>
+  <si>
+    <t>De_Distribuição</t>
+  </si>
+  <si>
+    <t>Núcleo_de_Circulação</t>
+  </si>
+  <si>
+    <t>Político</t>
+  </si>
+  <si>
+    <t>Geográfico</t>
+  </si>
+  <si>
+    <t>Bioclimático</t>
+  </si>
+  <si>
+    <t>Zona_térmica</t>
+  </si>
+  <si>
+    <t>Tropical</t>
+  </si>
+  <si>
+    <t>Polar</t>
+  </si>
+  <si>
+    <t>Equatorial</t>
+  </si>
+  <si>
+    <t>Subtropical</t>
+  </si>
+  <si>
+    <t>Semiárido</t>
+  </si>
+  <si>
+    <t>Atlántico</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Galpão</t>
+  </si>
+  <si>
+    <t>Edifício</t>
+  </si>
+  <si>
+    <t>Gleba</t>
+  </si>
+  <si>
+    <t>Loteamento</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1379,37 +1430,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="18" customWidth="1"/>
-    <col min="8" max="9" width="7.85546875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="15" customWidth="1"/>
+    <col min="8" max="9" width="7.88671875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="15" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="38.85546875" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.88671875" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -1417,16 +1468,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>27</v>
@@ -1441,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>3</v>
@@ -1471,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -1481,11 +1532,11 @@
       <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>128</v>
+      <c r="D2" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>33</v>
@@ -1506,24 +1557,24 @@
         <v>10</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:L18" si="0">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B2,"1_",""))</f>
+        <f t="shared" ref="L2:L32" si="0">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B2,"1_",""))</f>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M2" s="23" t="str">
-        <f t="shared" ref="M2:M18" si="1">_xlfn.CONCAT(SUBSTITUTE(C2,"_"," ")," ")</f>
+        <f t="shared" ref="M2:M32" si="1">_xlfn.CONCAT(SUBSTITUTE(C2,"_"," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N2" s="3" t="str">
-        <f t="shared" ref="N2:N18" si="2">_xlfn.CONCAT(SUBSTITUTE(D2,"_"," ")," ")</f>
-        <v xml:space="preserve">De Divisão </v>
+        <f t="shared" ref="N2:N32" si="2">_xlfn.CONCAT(SUBSTITUTE(D2,"_"," ")," ")</f>
+        <v xml:space="preserve">Geográfico </v>
       </c>
       <c r="O2" s="3" t="str">
-        <f t="shared" ref="O2:O18" si="3">_xlfn.CONCAT(SUBSTITUTE(E2,"_"," ")," ")</f>
-        <v xml:space="preserve">Política </v>
+        <f t="shared" ref="O2:O32" si="3">_xlfn.CONCAT(SUBSTITUTE(E2,"_"," ")," ")</f>
+        <v xml:space="preserve">Político </v>
       </c>
       <c r="P2" s="3" t="str">
-        <f t="shared" ref="P2:P18" si="4">_xlfn.CONCAT(L2," - ",M2," - ",N2," - ",O2," - ", SUBSTITUTE(F2, "_", " "))</f>
-        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Continente</v>
+        <f t="shared" ref="P2:P32" si="4">_xlfn.CONCAT(L2," - ",M2," - ",N2," - ",O2," - ", SUBSTITUTE(F2, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Geográfico  - Político  - Continente</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>55</v>
@@ -1539,7 +1590,7 @@
         <v>key_2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -1549,14 +1600,14 @@
       <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>128</v>
+      <c r="D3" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>10</v>
@@ -1583,15 +1634,15 @@
       </c>
       <c r="N3" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Divisão </v>
+        <v xml:space="preserve">Geográfico </v>
       </c>
       <c r="O3" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Política </v>
+        <v xml:space="preserve">Político </v>
       </c>
       <c r="P3" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - SubContinente</v>
+        <v>Conceito de: BIM - Limite  - Geográfico  - Político  - SubContinente</v>
       </c>
       <c r="Q3" s="21" t="s">
         <v>55</v>
@@ -1603,11 +1654,11 @@
         <v>55</v>
       </c>
       <c r="T3" s="6" t="str">
-        <f t="shared" ref="T3:T17" si="6">_xlfn.CONCAT("key_",A3)</f>
+        <f t="shared" ref="T3:T25" si="6">_xlfn.CONCAT("key_",A3)</f>
         <v>key_3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -1617,11 +1668,11 @@
       <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>128</v>
+      <c r="D4" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -1651,15 +1702,15 @@
       </c>
       <c r="N4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Divisão </v>
+        <v xml:space="preserve">Geográfico </v>
       </c>
       <c r="O4" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Política </v>
+        <v xml:space="preserve">Político </v>
       </c>
       <c r="P4" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - País</v>
+        <v>Conceito de: BIM - Limite  - Geográfico  - Político  - País</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>55</v>
@@ -1675,7 +1726,7 @@
         <v>key_4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -1685,11 +1736,11 @@
       <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>128</v>
+      <c r="D5" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
@@ -1719,15 +1770,15 @@
       </c>
       <c r="N5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Divisão </v>
+        <v xml:space="preserve">Geográfico </v>
       </c>
       <c r="O5" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Política </v>
+        <v xml:space="preserve">Político </v>
       </c>
       <c r="P5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Estado</v>
+        <v>Conceito de: BIM - Limite  - Geográfico  - Político  - Estado</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>55</v>
@@ -1743,7 +1794,7 @@
         <v>key_5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -1753,11 +1804,11 @@
       <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>128</v>
+      <c r="D6" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>31</v>
@@ -1787,15 +1838,15 @@
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Divisão </v>
+        <v xml:space="preserve">Geográfico </v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Política </v>
+        <v xml:space="preserve">Político </v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Cidade</v>
+        <v>Conceito de: BIM - Limite  - Geográfico  - Político  - Cidade</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>55</v>
@@ -1811,7 +1862,7 @@
         <v>key_6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -1821,14 +1872,14 @@
       <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>130</v>
+      <c r="D7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
@@ -1846,24 +1897,24 @@
         <v>10</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L7:L12" si="7">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B7,"1_",""))</f>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M7" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M7:M12" si="8">_xlfn.CONCAT(SUBSTITUTE(C7,"_"," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Zoneamento </v>
+        <f t="shared" ref="N7:N11" si="9">_xlfn.CONCAT(SUBSTITUTE(D7,"_"," ")," ")</f>
+        <v xml:space="preserve">Bioclimático </v>
       </c>
       <c r="O7" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Urbano </v>
+        <f t="shared" ref="O7:O12" si="10">_xlfn.CONCAT(SUBSTITUTE(E7,"_"," ")," ")</f>
+        <v xml:space="preserve">Zona térmica </v>
       </c>
       <c r="P7" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Area de Planejamento</v>
+        <f t="shared" ref="P7:P12" si="11">_xlfn.CONCAT(L7," - ",M7," - ",N7," - ",O7," - ", SUBSTITUTE(F7, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Bioclimático  - Zona térmica  - Polar</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>55</v>
@@ -1875,11 +1926,11 @@
         <v>55</v>
       </c>
       <c r="T7" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T7:T12" si="12">_xlfn.CONCAT("key_",A7)</f>
         <v>key_7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -1889,14 +1940,14 @@
       <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>131</v>
+      <c r="D8" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -1914,24 +1965,24 @@
         <v>10</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Zoneamento </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Bioclimático </v>
       </c>
       <c r="O8" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Urbano </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Zona térmica </v>
       </c>
       <c r="P8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Região Administrativa</v>
+        <f t="shared" si="11"/>
+        <v>Conceito de: BIM - Limite  - Bioclimático  - Zona térmica  - Equatorial</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>55</v>
@@ -1943,11 +1994,11 @@
         <v>55</v>
       </c>
       <c r="T8" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>key_8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -1957,14 +2008,14 @@
       <c r="C9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
+      <c r="D9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -1982,24 +2033,24 @@
         <v>10</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M9" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Zoneamento </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Bioclimático </v>
       </c>
       <c r="O9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Urbano </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Zona térmica </v>
       </c>
       <c r="P9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Bairro</v>
+        <f t="shared" si="11"/>
+        <v>Conceito de: BIM - Limite  - Bioclimático  - Zona térmica  - Tropical</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>55</v>
@@ -2011,11 +2062,11 @@
         <v>55</v>
       </c>
       <c r="T9" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>key_9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -2025,14 +2076,14 @@
       <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
+      <c r="D10" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -2050,24 +2101,24 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Zoneamento </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Bioclimático </v>
       </c>
       <c r="O10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Urbano </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Zona térmica </v>
       </c>
       <c r="P10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Quadra</v>
+        <f t="shared" si="11"/>
+        <v>Conceito de: BIM - Limite  - Bioclimático  - Zona térmica  - Subtropical</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>55</v>
@@ -2079,11 +2130,11 @@
         <v>55</v>
       </c>
       <c r="T10" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>key_10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -2093,14 +2144,14 @@
       <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>0</v>
+      <c r="D11" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -2118,24 +2169,24 @@
         <v>10</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Zoneamento </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Bioclimático </v>
       </c>
       <c r="O11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Urbano </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Zona térmica </v>
       </c>
       <c r="P11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Lote</v>
+        <f t="shared" si="11"/>
+        <v>Conceito de: BIM - Limite  - Bioclimático  - Zona térmica  - Semiárido</v>
       </c>
       <c r="Q11" s="21" t="s">
         <v>55</v>
@@ -2147,11 +2198,11 @@
         <v>55</v>
       </c>
       <c r="T11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>key_11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -2161,14 +2212,14 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>132</v>
+      <c r="D12" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -2186,24 +2237,24 @@
         <v>10</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>Conceito de: BIM</v>
       </c>
       <c r="M12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Construção </v>
+        <v xml:space="preserve">Bioclimático </v>
       </c>
       <c r="O12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Predial </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Zona térmica </v>
       </c>
       <c r="P12" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Prédio</v>
+        <f t="shared" si="11"/>
+        <v>Conceito de: BIM - Limite  - Bioclimático  - Zona térmica  - Atlántico</v>
       </c>
       <c r="Q12" s="21" t="s">
         <v>55</v>
@@ -2215,11 +2266,11 @@
         <v>55</v>
       </c>
       <c r="T12" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>key_12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -2229,14 +2280,14 @@
       <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>132</v>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -2263,15 +2314,15 @@
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Construção </v>
+        <v xml:space="preserve">Urbano </v>
       </c>
       <c r="O13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Predial </v>
+        <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Bloco</v>
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Area de Planejamento</v>
       </c>
       <c r="Q13" s="21" t="s">
         <v>55</v>
@@ -2287,7 +2338,7 @@
         <v>key_13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -2297,14 +2348,14 @@
       <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>132</v>
+      <c r="D14" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -2331,15 +2382,15 @@
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Construção </v>
+        <v xml:space="preserve">Urbano </v>
       </c>
       <c r="O14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Predial </v>
+        <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Edícula</v>
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Região Administrativa</v>
       </c>
       <c r="Q14" s="21" t="s">
         <v>55</v>
@@ -2355,7 +2406,7 @@
         <v>key_14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>15</v>
       </c>
@@ -2366,13 +2417,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -2399,15 +2450,15 @@
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Ordem </v>
+        <v xml:space="preserve">Urbano </v>
       </c>
       <c r="O15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Funcional </v>
+        <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Ambiente</v>
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Bairro</v>
       </c>
       <c r="Q15" s="21" t="s">
         <v>55</v>
@@ -2423,7 +2474,7 @@
         <v>key_15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>16</v>
       </c>
@@ -2434,13 +2485,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>10</v>
@@ -2467,15 +2518,15 @@
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Ordem </v>
+        <v xml:space="preserve">Urbano </v>
       </c>
       <c r="O16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Funcional </v>
+        <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Setor</v>
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Quadra</v>
       </c>
       <c r="Q16" s="21" t="s">
         <v>55</v>
@@ -2491,7 +2542,7 @@
         <v>key_16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>17</v>
       </c>
@@ -2502,13 +2553,13 @@
         <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -2526,110 +2577,1062 @@
         <v>10</v>
       </c>
       <c r="L17" s="3" t="str">
+        <f t="shared" ref="L17:L18" si="13">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B17,"1_",""))</f>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M17" s="23" t="str">
+        <f t="shared" ref="M17:M18" si="14">_xlfn.CONCAT(SUBSTITUTE(C17,"_"," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N17" s="3" t="str">
+        <f t="shared" ref="N17:N18" si="15">_xlfn.CONCAT(SUBSTITUTE(D17,"_"," ")," ")</f>
+        <v xml:space="preserve">Urbano </v>
+      </c>
+      <c r="O17" s="3" t="str">
+        <f t="shared" ref="O17:O18" si="16">_xlfn.CONCAT(SUBSTITUTE(E17,"_"," ")," ")</f>
+        <v xml:space="preserve">De Zoneamento </v>
+      </c>
+      <c r="P17" s="3" t="str">
+        <f t="shared" ref="P17:P18" si="17">_xlfn.CONCAT(L17," - ",M17," - ",N17," - ",O17," - ", SUBSTITUTE(F17, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Gleba</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="6" t="str">
+        <f t="shared" ref="T17:T18" si="18">_xlfn.CONCAT("key_",A17)</f>
+        <v>key_17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>18</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M18" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N18" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">Urbano </v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">De Zoneamento </v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Loteamento</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>key_18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>19</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M17" s="23" t="str">
+      <c r="M19" s="23" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Limite </v>
       </c>
-      <c r="N17" s="3" t="str">
+      <c r="N19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Ordem </v>
-      </c>
-      <c r="O17" s="3" t="str">
+        <v xml:space="preserve">Urbano </v>
+      </c>
+      <c r="O19" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Funcional </v>
-      </c>
-      <c r="P17" s="3" t="str">
+        <v xml:space="preserve">De Zoneamento </v>
+      </c>
+      <c r="P19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Divisão</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" s="6" t="str">
+        <v>Conceito de: BIM - Limite  - Urbano  - De Zoneamento  - Lote</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>key_17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>18</v>
-      </c>
-      <c r="B18" s="20" t="s">
+        <v>key_19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="3" t="str">
+      <c r="C20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M18" s="23" t="str">
+      <c r="M20" s="23" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Limite </v>
       </c>
-      <c r="N18" s="3" t="str">
+      <c r="N20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">De Ordem </v>
-      </c>
-      <c r="O18" s="3" t="str">
+        <v xml:space="preserve">Predial </v>
+      </c>
+      <c r="O20" s="3" t="str">
         <f t="shared" si="3"/>
+        <v xml:space="preserve">De Construção </v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Predial  - De Construção  - Prédio</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>key_20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>21</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Predial </v>
+      </c>
+      <c r="O21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Construção </v>
+      </c>
+      <c r="P21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Predial  - De Construção  - Bloco</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>key_21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>22</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" ref="L22" si="19">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B22,"1_",""))</f>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M22" s="23" t="str">
+        <f t="shared" ref="M22" si="20">_xlfn.CONCAT(SUBSTITUTE(C22,"_"," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N22" s="3" t="str">
+        <f t="shared" ref="N22" si="21">_xlfn.CONCAT(SUBSTITUTE(D22,"_"," ")," ")</f>
+        <v xml:space="preserve">Predial </v>
+      </c>
+      <c r="O22" s="3" t="str">
+        <f t="shared" ref="O22" si="22">_xlfn.CONCAT(SUBSTITUTE(E22,"_"," ")," ")</f>
+        <v xml:space="preserve">De Construção </v>
+      </c>
+      <c r="P22" s="3" t="str">
+        <f t="shared" ref="P22" si="23">_xlfn.CONCAT(L22," - ",M22," - ",N22," - ",O22," - ", SUBSTITUTE(F22, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Predial  - De Construção  - Edifício</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="6" t="str">
+        <f t="shared" ref="T22" si="24">_xlfn.CONCAT("key_",A22)</f>
+        <v>key_22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>23</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Predial </v>
+      </c>
+      <c r="O23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Construção </v>
+      </c>
+      <c r="P23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Predial  - De Construção  - Casa</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>key_23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>24</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" ref="L24" si="25">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B24,"1_",""))</f>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M24" s="23" t="str">
+        <f t="shared" ref="M24" si="26">_xlfn.CONCAT(SUBSTITUTE(C24,"_"," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N24" s="3" t="str">
+        <f t="shared" ref="N24" si="27">_xlfn.CONCAT(SUBSTITUTE(D24,"_"," ")," ")</f>
+        <v xml:space="preserve">Predial </v>
+      </c>
+      <c r="O24" s="3" t="str">
+        <f t="shared" ref="O24" si="28">_xlfn.CONCAT(SUBSTITUTE(E24,"_"," ")," ")</f>
+        <v xml:space="preserve">De Construção </v>
+      </c>
+      <c r="P24" s="3" t="str">
+        <f t="shared" ref="P24" si="29">_xlfn.CONCAT(L24," - ",M24," - ",N24," - ",O24," - ", SUBSTITUTE(F24, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Predial  - De Construção  - Galpão</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="6" t="str">
+        <f t="shared" ref="T24" si="30">_xlfn.CONCAT("key_",A24)</f>
+        <v>key_24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Predial </v>
+      </c>
+      <c r="O25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Construção </v>
+      </c>
+      <c r="P25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Predial  - De Construção  - Edícula</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>key_25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>26</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" ref="L26" si="31">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B26,"1_",""))</f>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M26" s="23" t="str">
+        <f t="shared" ref="M26" si="32">_xlfn.CONCAT(SUBSTITUTE(C26,"_"," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N26" s="3" t="str">
+        <f t="shared" ref="N26" si="33">_xlfn.CONCAT(SUBSTITUTE(D26,"_"," ")," ")</f>
         <v xml:space="preserve">Funcional </v>
       </c>
-      <c r="P18" s="3" t="str">
+      <c r="O26" s="3" t="str">
+        <f t="shared" ref="O26" si="34">_xlfn.CONCAT(SUBSTITUTE(E26,"_"," ")," ")</f>
+        <v xml:space="preserve">De Organização </v>
+      </c>
+      <c r="P26" s="3" t="str">
+        <f t="shared" ref="P26" si="35">_xlfn.CONCAT(L26," - ",M26," - ",N26," - ",O26," - ", SUBSTITUTE(F26, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Organização  - Unidade</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" s="6" t="str">
+        <f t="shared" ref="T26:T32" si="36">_xlfn.CONCAT("key_",A26)</f>
+        <v>key_26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>27</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="O27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Organização </v>
+      </c>
+      <c r="P27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Núcleo</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="S18" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18" s="6" t="str">
-        <f t="shared" ref="T18" si="7">_xlfn.CONCAT("key_",A18)</f>
-        <v>key_18</v>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Organização  - Setor</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>key_27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>28</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f t="shared" ref="L28" si="37">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B28,"1_",""))</f>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M28" s="23" t="str">
+        <f t="shared" ref="M28" si="38">_xlfn.CONCAT(SUBSTITUTE(C28,"_"," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N28" s="3" t="str">
+        <f t="shared" ref="N28" si="39">_xlfn.CONCAT(SUBSTITUTE(D28,"_"," ")," ")</f>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="O28" s="3" t="str">
+        <f t="shared" ref="O28" si="40">_xlfn.CONCAT(SUBSTITUTE(E28,"_"," ")," ")</f>
+        <v xml:space="preserve">De Organização </v>
+      </c>
+      <c r="P28" s="3" t="str">
+        <f t="shared" ref="P28" si="41">_xlfn.CONCAT(L28," - ",M28," - ",N28," - ",O28," - ", SUBSTITUTE(F28, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Organização  - Divisão</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="6" t="str">
+        <f t="shared" ref="T28" si="42">_xlfn.CONCAT("key_",A28)</f>
+        <v>key_28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>29</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="O29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Organização </v>
+      </c>
+      <c r="P29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Organização  - Departamento</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>key_29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>30</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" ref="L30" si="43">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B30,"1_",""))</f>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M30" s="23" t="str">
+        <f t="shared" ref="M30" si="44">_xlfn.CONCAT(SUBSTITUTE(C30,"_"," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N30" s="3" t="str">
+        <f t="shared" ref="N30" si="45">_xlfn.CONCAT(SUBSTITUTE(D30,"_"," ")," ")</f>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="O30" s="3" t="str">
+        <f t="shared" ref="O30" si="46">_xlfn.CONCAT(SUBSTITUTE(E30,"_"," ")," ")</f>
+        <v xml:space="preserve">De Distribuição </v>
+      </c>
+      <c r="P30" s="3" t="str">
+        <f t="shared" ref="P30" si="47">_xlfn.CONCAT(L30," - ",M30," - ",N30," - ",O30," - ", SUBSTITUTE(F30, "_", " "))</f>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Distribuição  - Ambiente</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" s="6" t="str">
+        <f t="shared" ref="T30" si="48">_xlfn.CONCAT("key_",A30)</f>
+        <v>key_30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>31</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="O31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Distribuição </v>
+      </c>
+      <c r="P31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Distribuição  - Apartamento</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>key_31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>32</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="O32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">De Distribuição </v>
+      </c>
+      <c r="P32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM - Limite  - Funcional  - De Distribuição  - Núcleo de Circulação</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>key_32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F18">
+  <conditionalFormatting sqref="F1:F32">
     <cfRule type="duplicateValues" dxfId="18" priority="3175"/>
     <cfRule type="duplicateValues" dxfId="17" priority="3176"/>
   </conditionalFormatting>
@@ -2642,7 +3645,7 @@
     <cfRule type="duplicateValues" dxfId="11" priority="708"/>
     <cfRule type="duplicateValues" dxfId="10" priority="709"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F1048576">
+  <conditionalFormatting sqref="F33:F1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1048576">
@@ -2659,122 +3662,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C24" sqref="C24"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="O1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="V1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
         <v>2</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="E2" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F2" s="28" t="str">
         <f t="shared" ref="F2:F16" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
@@ -2832,21 +3835,21 @@
         <v>Valor xsd:string da Dataprop: categoria</v>
       </c>
     </row>
-    <row r="3" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>3</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F3" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2905,21 +3908,21 @@
         <v>Valor xsd:string da Dataprop: classe</v>
       </c>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>4</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F4" s="28" t="str">
         <f t="shared" si="0"/>
@@ -2978,21 +3981,21 @@
         <v>Valor xsd:string da Dataprop: tipo</v>
       </c>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F5" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3051,21 +4054,21 @@
         <v>Valor xsd:string da Dataprop: entidade</v>
       </c>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>6</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F6" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3124,21 +4127,21 @@
         <v>Valor xsd:string da Dataprop: link</v>
       </c>
     </row>
-    <row r="7" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>7</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3197,21 +4200,21 @@
         <v>Valor xsd:string da Dataprop: grupo</v>
       </c>
     </row>
-    <row r="8" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>8</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3270,21 +4273,21 @@
         <v>Valor xsd:string da Dataprop: código</v>
       </c>
     </row>
-    <row r="9" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>9</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>116</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3343,21 +4346,21 @@
         <v>Valor xsd:string da Dataprop: nome</v>
       </c>
     </row>
-    <row r="10" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>10</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3389,7 +4392,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>10</v>
@@ -3416,21 +4419,21 @@
         <v>Valor xsd:string da Dataprop: id</v>
       </c>
     </row>
-    <row r="11" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>11</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3489,21 +4492,21 @@
         <v>Valor xsd:string da Dataprop: zona</v>
       </c>
     </row>
-    <row r="12" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>12</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3562,21 +4565,21 @@
         <v>Valor xsd:string da Dataprop: tema</v>
       </c>
     </row>
-    <row r="13" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>13</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3635,21 +4638,21 @@
         <v>Valor xsd:string da Dataprop: descrição</v>
       </c>
     </row>
-    <row r="14" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>14</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3708,21 +4711,21 @@
         <v>Valor xsd:string da Dataprop: dentro_de</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>15</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3781,21 +4784,21 @@
         <v>Valor xsd:string da Dataprop: conectado_a</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>16</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -3854,21 +4857,21 @@
         <v>Valor xsd:string da Dataprop: parte_de</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>17</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" s="28" t="str">
         <f t="shared" ref="F17:F32" si="5">_xlfn.CONCAT("d_",MID(C17,FIND("_",C17,1)+1,100))</f>
@@ -3927,21 +4930,21 @@
         <v>Valor xsd:string da Dataprop: ambiente</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>18</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4000,21 +5003,21 @@
         <v>Valor xsd:string da Dataprop: divisão</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>19</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4073,21 +5076,21 @@
         <v>Valor xsd:string da Dataprop: zona</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>20</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4146,21 +5149,21 @@
         <v>Valor xsd:string da Dataprop: agrupado_com</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>21</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4219,21 +5222,21 @@
         <v>Valor xsd:string da Dataprop: setor</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>22</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4292,21 +5295,21 @@
         <v>Valor xsd:string da Dataprop: núcleo</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>23</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4365,21 +5368,21 @@
         <v>Valor xsd:string da Dataprop: localizado_em</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>24</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4438,21 +5441,21 @@
         <v>Valor xsd:string da Dataprop: acima_de</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>25</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F25" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4511,21 +5514,21 @@
         <v>Valor xsd:string da Dataprop: embaixo_de</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>26</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4584,21 +5587,21 @@
         <v>Valor xsd:string da Dataprop: frente_a</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>27</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F27" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4657,21 +5660,21 @@
         <v>Valor xsd:string da Dataprop: adjacente_a</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>28</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4730,21 +5733,21 @@
         <v>Valor xsd:string da Dataprop: continente</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>29</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4803,21 +5806,21 @@
         <v>Valor xsd:string da Dataprop: país</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>30</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4876,21 +5879,21 @@
         <v>Valor xsd:string da Dataprop: estado</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>31</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F31" s="28" t="str">
         <f t="shared" si="5"/>
@@ -4949,21 +5952,21 @@
         <v>Valor xsd:string da Dataprop: cidade</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>32</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="E32" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="28" t="str">
         <f t="shared" si="5"/>
@@ -5022,21 +6025,21 @@
         <v>Valor xsd:string da Dataprop: distrito</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>33</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="28" t="str">
         <f t="shared" ref="F33:F35" si="9">_xlfn.CONCAT("d_",MID(C33,FIND("_",C33,1)+1,100))</f>
@@ -5095,21 +6098,21 @@
         <v>Valor xsd:string da Dataprop: bairro</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>34</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F34" s="28" t="str">
         <f t="shared" si="9"/>
@@ -5168,21 +6171,21 @@
         <v>Valor xsd:string da Dataprop: número</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>35</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F35" s="28" t="str">
         <f t="shared" si="9"/>
@@ -5241,21 +6244,21 @@
         <v>Valor xsd:string da Dataprop: AP</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>36</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" s="28" t="str">
         <f t="shared" ref="F36" si="11">_xlfn.CONCAT("d_",MID(C36,FIND("_",C36,1)+1,100))</f>
@@ -5324,26 +6327,26 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:H35 Q37:Q1048576">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+  <conditionalFormatting sqref="F2:H36">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
     <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:O1048576 J1:R36 H2:H36">
+  <conditionalFormatting sqref="J1:R36 H2:H36 G37:O1048576">
     <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q37:Q1048576">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:H36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="T1">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5357,14 +6360,14 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="13" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="11"/>
-    <col min="11" max="16384" width="5.7109375" style="22"/>
+    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
+    <col min="2" max="10" width="5.6640625" style="11"/>
+    <col min="11" max="16384" width="5.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5432,7 +6435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -5500,7 +6503,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
